--- a/biology/Médecine/Ligne_nuchale/Ligne_nuchale.xlsx
+++ b/biology/Médecine/Ligne_nuchale/Ligne_nuchale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les lignes nuchales sont trois lignes courbes sur la surface externe de l'écaille de l'os occipital.
 La ligne nuchale suprême ou ligne courbe occipitale suprême, souvent légèrement marquée, où s'attache  l'aponévrose épicrânienne.
